--- a/artfynd/A 26141-2022.xlsx
+++ b/artfynd/A 26141-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89561904</v>
+        <v>89561920</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508405.8014842027</v>
+        <v>508180.1397883456</v>
       </c>
       <c r="R2" t="n">
-        <v>7157896.004994209</v>
+        <v>7157869.144381812</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89561918</v>
+        <v>89561903</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508584.965041342</v>
+        <v>508181.8907144414</v>
       </c>
       <c r="R3" t="n">
-        <v>7157911.994302315</v>
+        <v>7157858.822880358</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89561920</v>
+        <v>89561919</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508180.1397883456</v>
+        <v>508181.0314439956</v>
       </c>
       <c r="R4" t="n">
-        <v>7157869.144381812</v>
+        <v>7157857.960051162</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89561888</v>
+        <v>110694996</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,34 +1044,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508419.1011138954</v>
+        <v>508120.4989547321</v>
       </c>
       <c r="R5" t="n">
-        <v>7157915.833398769</v>
+        <v>7157940.836871861</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,26 +1128,26 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89561889</v>
+        <v>110694995</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>81248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,34 +1160,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-Bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508399.8642952705</v>
+        <v>508120.5046955775</v>
       </c>
       <c r="R6" t="n">
-        <v>7157861.998314789</v>
+        <v>7157938.685647392</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1227,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1238,32 +1241,33 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89561892</v>
+        <v>110694985</v>
       </c>
       <c r="B7" t="n">
-        <v>73693</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,37 +1280,41 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-Bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508399.8642952705</v>
+        <v>508117.4027607946</v>
       </c>
       <c r="R7" t="n">
-        <v>7157861.998314789</v>
+        <v>7157809.60020776</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1338,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,12 +1348,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>födosökande och tystlåten för en ggs skull</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,26 +1373,26 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89561876</v>
+        <v>110694994</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,34 +1405,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508556.0323171288</v>
+        <v>508122.4460188448</v>
       </c>
       <c r="R8" t="n">
-        <v>7157936.867342628</v>
+        <v>7157856.942592324</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1446,7 +1459,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1456,7 +1469,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1476,26 +1489,26 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89561903</v>
+        <v>110694992</v>
       </c>
       <c r="B9" t="n">
-        <v>73693</v>
+        <v>73696</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1528,14 +1541,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>508181.8907144414</v>
+        <v>508120.7791116443</v>
       </c>
       <c r="R9" t="n">
-        <v>7157858.822880358</v>
+        <v>7157835.855348294</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1562,7 +1575,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1572,7 +1585,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1592,26 +1605,26 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89561919</v>
+        <v>89561904</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1633,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1661,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508181.0314439956</v>
+        <v>508405.8014842027</v>
       </c>
       <c r="R10" t="n">
-        <v>7157857.960051162</v>
+        <v>7157896.004994209</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,14 +1737,14 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89561908</v>
+        <v>89561918</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1740,21 +1753,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>508496.1585720535</v>
+        <v>508584.965041342</v>
       </c>
       <c r="R11" t="n">
-        <v>7157934.978585394</v>
+        <v>7157911.994302315</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,11 +1823,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,10 +1853,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110694996</v>
+        <v>89561888</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,34 +1869,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>508120.4989547321</v>
+        <v>508419.1011138954</v>
       </c>
       <c r="R12" t="n">
-        <v>7157940.836871861</v>
+        <v>7157915.833398769</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,7 +1923,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1925,7 +1933,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1945,26 +1953,26 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110694989</v>
+        <v>89561889</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,34 +1985,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>508301.697820781</v>
+        <v>508399.8642952705</v>
       </c>
       <c r="R13" t="n">
-        <v>7157841.936939664</v>
+        <v>7157861.998314789</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2031,7 +2039,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2041,7 +2049,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2061,26 +2069,26 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110694988</v>
+        <v>89561892</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>73693</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,34 +2101,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>508407.9625505499</v>
+        <v>508399.8642952705</v>
       </c>
       <c r="R14" t="n">
-        <v>7157893.429437263</v>
+        <v>7157861.998314789</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2147,7 +2155,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2157,7 +2165,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2177,26 +2185,26 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110694995</v>
+        <v>89561876</v>
       </c>
       <c r="B15" t="n">
-        <v>81248</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2209,37 +2217,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lill-Bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>508120.5046955775</v>
+        <v>508556.0323171288</v>
       </c>
       <c r="R15" t="n">
-        <v>7157938.685647392</v>
+        <v>7157936.867342628</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2266,7 +2271,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2276,7 +2281,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2290,37 +2295,36 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110694986</v>
+        <v>89561908</v>
       </c>
       <c r="B16" t="n">
-        <v>85715</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2329,34 +2333,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>508339.86753408</v>
+        <v>508496.1585720535</v>
       </c>
       <c r="R16" t="n">
-        <v>7157904.428650577</v>
+        <v>7157934.978585394</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2383,7 +2387,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2393,12 +2397,17 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2413,26 +2422,26 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110694991</v>
+        <v>110694989</v>
       </c>
       <c r="B17" t="n">
-        <v>89419</v>
+        <v>89405</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2454,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2469,10 +2478,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>508317.2746237174</v>
+        <v>508301.697820781</v>
       </c>
       <c r="R17" t="n">
-        <v>7157817.024181078</v>
+        <v>7157841.936939664</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2545,10 +2554,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110694993</v>
+        <v>110694988</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2561,21 +2570,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2585,10 +2594,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>508476.5727480573</v>
+        <v>508407.9625505499</v>
       </c>
       <c r="R18" t="n">
-        <v>7157852.31504698</v>
+        <v>7157893.429437263</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2661,10 +2670,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110694985</v>
+        <v>110694986</v>
       </c>
       <c r="B19" t="n">
-        <v>56543</v>
+        <v>85715</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,41 +2686,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>510</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Lill-Bergvattnet, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>508117.4027607946</v>
+        <v>508339.86753408</v>
       </c>
       <c r="R19" t="n">
-        <v>7157809.60020776</v>
+        <v>7157904.428650577</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2751,11 +2756,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>födosökande och tystlåten för en ggs skull</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,10 +2786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110694987</v>
+        <v>110694991</v>
       </c>
       <c r="B20" t="n">
-        <v>85715</v>
+        <v>89419</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2802,21 +2802,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>510</v>
+        <v>1204</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>508440.3121548754</v>
+        <v>508317.2746237174</v>
       </c>
       <c r="R20" t="n">
-        <v>7157878.890296321</v>
+        <v>7157817.024181078</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110694994</v>
+        <v>110694993</v>
       </c>
       <c r="B21" t="n">
         <v>89423</v>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>508122.4460188448</v>
+        <v>508476.5727480573</v>
       </c>
       <c r="R21" t="n">
-        <v>7157856.942592324</v>
+        <v>7157852.31504698</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110694990</v>
+        <v>110694987</v>
       </c>
       <c r="B22" t="n">
-        <v>89419</v>
+        <v>85715</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3034,21 +3034,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1204</v>
+        <v>510</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>508432.1223925821</v>
+        <v>508440.3121548754</v>
       </c>
       <c r="R22" t="n">
-        <v>7157880.588618397</v>
+        <v>7157878.890296321</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110694992</v>
+        <v>110694990</v>
       </c>
       <c r="B23" t="n">
-        <v>73696</v>
+        <v>89419</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3150,21 +3150,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>508120.7791116443</v>
+        <v>508432.1223925821</v>
       </c>
       <c r="R23" t="n">
-        <v>7157835.855348294</v>
+        <v>7157880.588618397</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>

--- a/artfynd/A 26141-2022.xlsx
+++ b/artfynd/A 26141-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89561920</v>
+        <v>89561904</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508180.1397883456</v>
+        <v>508405.8014842027</v>
       </c>
       <c r="R2" t="n">
-        <v>7157869.144381812</v>
+        <v>7157896.004994209</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89561903</v>
+        <v>89561918</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508181.8907144414</v>
+        <v>508584.965041342</v>
       </c>
       <c r="R3" t="n">
-        <v>7157858.822880358</v>
+        <v>7157911.994302315</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89561919</v>
+        <v>89561920</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508181.0314439956</v>
+        <v>508180.1397883456</v>
       </c>
       <c r="R4" t="n">
-        <v>7157857.960051162</v>
+        <v>7157869.144381812</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110694996</v>
+        <v>89561888</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>81236</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,34 +1044,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508120.4989547321</v>
+        <v>508419.1011138954</v>
       </c>
       <c r="R5" t="n">
-        <v>7157940.836871861</v>
+        <v>7157915.833398769</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,26 +1128,26 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110694995</v>
+        <v>89561889</v>
       </c>
       <c r="B6" t="n">
-        <v>81248</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,37 +1160,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lill-Bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508120.5046955775</v>
+        <v>508399.8642952705</v>
       </c>
       <c r="R6" t="n">
-        <v>7157938.685647392</v>
+        <v>7157861.998314789</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1241,33 +1238,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110694985</v>
+        <v>89561892</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>73693</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,41 +1276,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lill-Bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508117.4027607946</v>
+        <v>508399.8642952705</v>
       </c>
       <c r="R7" t="n">
-        <v>7157809.60020776</v>
+        <v>7157861.998314789</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1338,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1348,17 +1340,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>födosökande och tystlåten för en ggs skull</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,26 +1360,26 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110694994</v>
+        <v>89561876</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,34 +1392,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508122.4460188448</v>
+        <v>508556.0323171288</v>
       </c>
       <c r="R8" t="n">
-        <v>7157856.942592324</v>
+        <v>7157936.867342628</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,7 +1446,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1469,7 +1456,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1489,26 +1476,26 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110694992</v>
+        <v>89561903</v>
       </c>
       <c r="B9" t="n">
-        <v>73696</v>
+        <v>73693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,14 +1528,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Öster Nåsjön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>508120.7791116443</v>
+        <v>508181.8907144414</v>
       </c>
       <c r="R9" t="n">
-        <v>7157835.855348294</v>
+        <v>7157858.822880358</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1575,7 +1562,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1585,7 +1572,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1605,26 +1592,26 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Erland Lindblad</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89561904</v>
+        <v>89561919</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1661,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508405.8014842027</v>
+        <v>508181.0314439956</v>
       </c>
       <c r="R10" t="n">
-        <v>7157896.004994209</v>
+        <v>7157857.960051162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1737,14 +1724,14 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89561918</v>
+        <v>89561908</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1753,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1777,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>508584.965041342</v>
+        <v>508496.1585720535</v>
       </c>
       <c r="R11" t="n">
-        <v>7157911.994302315</v>
+        <v>7157934.978585394</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1823,6 +1810,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1853,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89561888</v>
+        <v>110694996</v>
       </c>
       <c r="B12" t="n">
-        <v>81236</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1869,34 +1861,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>508419.1011138954</v>
+        <v>508120.4989547321</v>
       </c>
       <c r="R12" t="n">
-        <v>7157915.833398769</v>
+        <v>7157940.836871861</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,7 +1915,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1933,7 +1925,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1953,26 +1945,26 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89561889</v>
+        <v>110694989</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,34 +1977,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>508399.8642952705</v>
+        <v>508301.697820781</v>
       </c>
       <c r="R13" t="n">
-        <v>7157861.998314789</v>
+        <v>7157841.936939664</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2039,7 +2031,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2049,7 +2041,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2069,26 +2061,26 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89561892</v>
+        <v>110694988</v>
       </c>
       <c r="B14" t="n">
-        <v>73693</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2101,34 +2093,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>508399.8642952705</v>
+        <v>508407.9625505499</v>
       </c>
       <c r="R14" t="n">
-        <v>7157861.998314789</v>
+        <v>7157893.429437263</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,7 +2147,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2165,7 +2157,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2185,26 +2177,26 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89561876</v>
+        <v>110694995</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>81248</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,34 +2209,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-Bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>508556.0323171288</v>
+        <v>508120.5046955775</v>
       </c>
       <c r="R15" t="n">
-        <v>7157936.867342628</v>
+        <v>7157938.685647392</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2271,7 +2266,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2281,7 +2276,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2295,36 +2290,37 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89561908</v>
+        <v>110694986</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>85715</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2333,34 +2329,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Öster Nåsjön, Jmt</t>
+          <t>Lill-bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>508496.1585720535</v>
+        <v>508339.86753408</v>
       </c>
       <c r="R16" t="n">
-        <v>7157934.978585394</v>
+        <v>7157904.428650577</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2387,7 +2383,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2397,17 +2393,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2422,26 +2413,26 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110694989</v>
+        <v>110694991</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>89419</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2454,21 +2445,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2478,10 +2469,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>508301.697820781</v>
+        <v>508317.2746237174</v>
       </c>
       <c r="R17" t="n">
-        <v>7157841.936939664</v>
+        <v>7157817.024181078</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2554,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110694988</v>
+        <v>110694993</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2570,21 +2561,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2594,10 +2585,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>508407.9625505499</v>
+        <v>508476.5727480573</v>
       </c>
       <c r="R18" t="n">
-        <v>7157893.429437263</v>
+        <v>7157852.31504698</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2670,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110694986</v>
+        <v>110694985</v>
       </c>
       <c r="B19" t="n">
-        <v>85715</v>
+        <v>56543</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2686,37 +2677,41 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>510</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Lill-bergvattnet, Jmt</t>
+          <t>Lill-Bergvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>508339.86753408</v>
+        <v>508117.4027607946</v>
       </c>
       <c r="R19" t="n">
-        <v>7157904.428650577</v>
+        <v>7157809.60020776</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2756,6 +2751,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>födosökande och tystlåten för en ggs skull</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,10 +2786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110694991</v>
+        <v>110694987</v>
       </c>
       <c r="B20" t="n">
-        <v>89419</v>
+        <v>85715</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2802,21 +2802,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>508317.2746237174</v>
+        <v>508440.3121548754</v>
       </c>
       <c r="R20" t="n">
-        <v>7157817.024181078</v>
+        <v>7157878.890296321</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110694993</v>
+        <v>110694994</v>
       </c>
       <c r="B21" t="n">
         <v>89423</v>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>508476.5727480573</v>
+        <v>508122.4460188448</v>
       </c>
       <c r="R21" t="n">
-        <v>7157852.31504698</v>
+        <v>7157856.942592324</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110694987</v>
+        <v>110694990</v>
       </c>
       <c r="B22" t="n">
-        <v>85715</v>
+        <v>89419</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3034,21 +3034,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>510</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>508440.3121548754</v>
+        <v>508432.1223925821</v>
       </c>
       <c r="R22" t="n">
-        <v>7157878.890296321</v>
+        <v>7157880.588618397</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110694990</v>
+        <v>110694992</v>
       </c>
       <c r="B23" t="n">
-        <v>89419</v>
+        <v>73696</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3150,21 +3150,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>508432.1223925821</v>
+        <v>508120.7791116443</v>
       </c>
       <c r="R23" t="n">
-        <v>7157880.588618397</v>
+        <v>7157835.855348294</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
